--- a/docs/Mapeamento de origens TCCII.xlsx
+++ b/docs/Mapeamento de origens TCCII.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bc42174f983b264/Documentos/UFES/TCC2/BI_SAUDE_MENTAL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59FAD5A6-4A59-4683-99D9-6DF5DDF70A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{772A557B-B65B-42FB-8B63-9AB8F2FEFA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11835" yWindow="0" windowWidth="26565" windowHeight="21600" xr2:uid="{9D1109E8-3E18-4A0D-9A31-4EC6D9E8A1E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{9D1109E8-3E18-4A0D-9A31-4EC6D9E8A1E6}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGES" sheetId="1" r:id="rId1"/>
+    <sheet name="Mapeamento de Origens" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="363">
   <si>
     <t>COLUNA</t>
   </si>
@@ -558,13 +559,737 @@
   </si>
   <si>
     <t>Idade do paciente.</t>
+  </si>
+  <si>
+    <t>sk_naturalidade</t>
+  </si>
+  <si>
+    <t>cd_naturalidade</t>
+  </si>
+  <si>
+    <t>ds_naturalidade</t>
+  </si>
+  <si>
+    <t>ds_nivel</t>
+  </si>
+  <si>
+    <t>dt_carga</t>
+  </si>
+  <si>
+    <t>d_naturalidade</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>Surrogate Key da dimensão de naturalidade.</t>
+  </si>
+  <si>
+    <t>Código identificador da naturalidade</t>
+  </si>
+  <si>
+    <t>Descrição da naturalidade.</t>
+  </si>
+  <si>
+    <t>Nível da naturalidade (PAIS ou UF-BRASIL)</t>
+  </si>
+  <si>
+    <t>TABELA</t>
+  </si>
+  <si>
+    <t>pais-m49 / uf-id</t>
+  </si>
+  <si>
+    <t>stg_pais / stg_uf</t>
+  </si>
+  <si>
+    <t>pais-nome / uf-nome</t>
+  </si>
+  <si>
+    <t>Campo Gerado</t>
+  </si>
+  <si>
+    <t>d_municipio</t>
+  </si>
+  <si>
+    <t>sk_municipio</t>
+  </si>
+  <si>
+    <t>cd_municipio</t>
+  </si>
+  <si>
+    <t>cd_municipio_normalizado</t>
+  </si>
+  <si>
+    <t>no_municipio</t>
+  </si>
+  <si>
+    <t>cd_microrregiao</t>
+  </si>
+  <si>
+    <t>no_microrregiao</t>
+  </si>
+  <si>
+    <t>cd_mesorregiao</t>
+  </si>
+  <si>
+    <t>no_mesorregiao</t>
+  </si>
+  <si>
+    <t>cd_regiao_imediata</t>
+  </si>
+  <si>
+    <t>no_regiao_imediata</t>
+  </si>
+  <si>
+    <t>cd_regiao_intermediaria</t>
+  </si>
+  <si>
+    <t>no_regiao_intermediaria</t>
+  </si>
+  <si>
+    <t>cd_uf</t>
+  </si>
+  <si>
+    <t>ds_sigla_uf</t>
+  </si>
+  <si>
+    <t>no_uf</t>
+  </si>
+  <si>
+    <t>cd_regiao</t>
+  </si>
+  <si>
+    <t>ds_sigla_regiao</t>
+  </si>
+  <si>
+    <t>no_regiao</t>
+  </si>
+  <si>
+    <t>Surrogate Key da dimensão de municipio.</t>
+  </si>
+  <si>
+    <t>CEP do município.</t>
+  </si>
+  <si>
+    <t>Código do município normalizado, contendo somente os 6 primeiros dígitos.</t>
+  </si>
+  <si>
+    <t>stg_municipios</t>
+  </si>
+  <si>
+    <t>d_ocupacao</t>
+  </si>
+  <si>
+    <t>sk_ocupacao</t>
+  </si>
+  <si>
+    <t>cd_ocupacao</t>
+  </si>
+  <si>
+    <t>ds_ocupacao</t>
+  </si>
+  <si>
+    <t>Surrogate Key da dimensão de ocupação.</t>
+  </si>
+  <si>
+    <t>Descrição da ocupação.</t>
+  </si>
+  <si>
+    <t>Data de carga do registro na dimensão.</t>
+  </si>
+  <si>
+    <t>stg_ocupacao / stg_cbo</t>
+  </si>
+  <si>
+    <t>OBSERVAÇÕES</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT sp."pais-m49"
+FROM stg.stg_pais sp
+LEFT JOIN stg.stg_uf su ON (sp."pais-m49" = (su."uf-id" + 800))
+WHERE su."uf-id" IS NULL
+UNION
+SELECT DISTINCT (su."uf-id" + 800)
+FROM stg.stg_uf su</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT sp."pais-nome"
+FROM stg.stg_pais sp
+LEFT JOIN stg.stg_uf su ON (sp."pais-m49" = (su."uf-id" + 800))
+WHERE su."uf-id" IS NULL
+UNION
+SELECT DISTINCT su."uf-nome"
+FROM stg.stg_uf su</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT cod
+FROM stg.stg_ocupacao
+WHERE cod IS NOT NULL
+UNION
+SELECT DISTINCT cod
+FROM stg.stg_cbo
+WHERE cod IS NOT NULL</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT nome
+FROM stg.stg_ocupacao
+WHERE cod IS NOT NULL
+UNION
+SELECT DISTINCT nome
+FROM stg.stg_cbo
+WHERE cod IS NOT NULL</t>
+  </si>
+  <si>
+    <t>d_raca_cor</t>
+  </si>
+  <si>
+    <t>sk_raca_cor</t>
+  </si>
+  <si>
+    <t>cd_raca_cor</t>
+  </si>
+  <si>
+    <t>ds_raca_cor</t>
+  </si>
+  <si>
+    <t>Surrogate Key da dimensão de raça/cor.</t>
+  </si>
+  <si>
+    <t>Código identificador da raça/cor.</t>
+  </si>
+  <si>
+    <t>Descrição da raça/cor.</t>
+  </si>
+  <si>
+    <t>DIMENSÃO</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>stg_sim</t>
+  </si>
+  <si>
+    <t>racacor</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT LEFT("municipio-id"::TEXT,6)
+FROM stg.stg_municipios</t>
+  </si>
+  <si>
+    <t>d_sexo</t>
+  </si>
+  <si>
+    <t>sk_sexo</t>
+  </si>
+  <si>
+    <t>cd_sexo</t>
+  </si>
+  <si>
+    <t>ds_sexo</t>
+  </si>
+  <si>
+    <t>Surrogate Key da dimensão de sexo.</t>
+  </si>
+  <si>
+    <t>Código identificador do sexo.</t>
+  </si>
+  <si>
+    <t>Descrição do sexo.</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    CASE sim.sexo
+        WHEN 1 THEN 'Masculino'
+        WHEN 2 THEN 'Feminino'
+        ELSE NULL
+    END
+FROM stg.stg_sim sim</t>
+  </si>
+  <si>
+    <t>d_cid</t>
+  </si>
+  <si>
+    <t>cd_cid</t>
+  </si>
+  <si>
+    <t>sk_cid</t>
+  </si>
+  <si>
+    <t>ds_capitulo</t>
+  </si>
+  <si>
+    <t>ds_categoria</t>
+  </si>
+  <si>
+    <t>ds_subcategoria</t>
+  </si>
+  <si>
+    <t>fl_restricao_sexo</t>
+  </si>
+  <si>
+    <t>Surrogate Key da dimensão do CID.</t>
+  </si>
+  <si>
+    <t>Código identificador do CID.</t>
+  </si>
+  <si>
+    <t>Descrição do capítulo do CID.</t>
+  </si>
+  <si>
+    <t>Descrição da categoria do CID.</t>
+  </si>
+  <si>
+    <t>Descrição da subcategoria do CID.</t>
+  </si>
+  <si>
+    <t>Flag indicando se o CID é restrito a um só sexo.</t>
+  </si>
+  <si>
+    <t>stg_cid10_subcategorias</t>
+  </si>
+  <si>
+    <t>stg_cid10_capitulos</t>
+  </si>
+  <si>
+    <t>stg_cid10_categorias</t>
+  </si>
+  <si>
+    <t>d_estabelecimento</t>
+  </si>
+  <si>
+    <t>sk_estabelecimento</t>
+  </si>
+  <si>
+    <t>nu_cnpj_estabelecimento</t>
+  </si>
+  <si>
+    <t>ds_regime</t>
+  </si>
+  <si>
+    <t>ds_natureza_juridica</t>
+  </si>
+  <si>
+    <t>ds_gestao</t>
+  </si>
+  <si>
+    <t>Surrogate Key da dimensão de estabelecimento.</t>
+  </si>
+  <si>
+    <t>Regime do estabelecimento.</t>
+  </si>
+  <si>
+    <t>Descrição da natureza jurídica do estabelecimento.</t>
+  </si>
+  <si>
+    <t>Descrição do tipo de gestão do estabelecimento.</t>
+  </si>
+  <si>
+    <t>stg_sih</t>
+  </si>
+  <si>
+    <t>SELECT
+    CASE nat_jur
+        WHEN 1015 THEN 'ÓRGÃO PÚBLICO DO PODER EXECUTIVO FEDERAL'
+        WHEN 1023 THEN 'ÓRGÃO PÚBLICO DO PODER EXEC ESTADUAL OU DISTR FED'
+        WHEN 1031 THEN 'ÓRGÃO PÚBLICO DO PODER EXECUTIVO MUNICIPAL'
+        WHEN 1040 THEN 'ÓRGÃO PÚBLICO DO PODER LEGISLATIVO FEDERAL'
+        WHEN 1058 THEN 'ÓRGÃO PÚBLICO DO PODER LEGISL ESTADUAL OU DIST FED'
+        WHEN 1066 THEN 'ÓRGÃO PÚBLICO DO PODER LEGISLATIVO MUNICIPAL'
+        WHEN 1074 THEN 'ÓRGÃO PÚBLICO DO PODER JUDICIÁRIO FEDERAL'
+        WHEN 1082 THEN 'ÓRGÃO PÚBLICO DO PODER JUDICIÁRIO ESTADUAL'
+        WHEN 1104 THEN 'AUTARQUIA FEDERAL'
+        WHEN 1112 THEN 'AUTARQUIA ESTADUAL OU DO DISTRITO FEDERAL'
+        WHEN 1120 THEN 'AUTARQUIA MUNICIPAL'
+        WHEN 1139 THEN 'FUNDAÇÃO FEDERAL'
+        WHEN 1147 THEN 'FUNDAÇÃO ESTADUAL OU DO DISTRITO FEDERAL'
+        WHEN 1155 THEN 'FUNDAÇÃO MUNICIPAL'
+        WHEN 1163 THEN 'ÓRGÃO PÚBLICO AUTÔNOMO FEDERAL'
+        WHEN 1171 THEN 'ÓRGÃO PÚBLICO AUTÔNOMO ESTADUAL OU DISTR FEDERAL'
+        WHEN 1180 THEN 'ÓRGÃO PÚBLICO AUTÔNOMO ESTADUAL OU DISTR FEDERAL'
+        WHEN 1198 THEN 'COMISSÃO POLINACIONAL'
+        WHEN 1201 THEN 'FUNDO PÚBLICO'
+        WHEN 1210 THEN 'ASSOCIAÇÃO PÚBLICA'
+        WHEN 2011 THEN 'EMPRESA PÚBLICA'
+        WHEN 2038 THEN 'SOCIEDADE DE ECONOMIA MISTA'
+        WHEN 2046 THEN 'SOCIEDADE ANÔNIMA ABERTA'
+        WHEN 2054 THEN 'SOCIEDADE ANÔNIMA FECHADA'
+        WHEN 2062 THEN 'SOCIEDADE EMPRESÁRIA LIMITADA'
+        WHEN 2070 THEN 'SOCIEDADE EMPRESÁRIA EM NOME COLETIVO'
+        WHEN 2089 THEN 'SOCIEDADE EMPRESÁRIA EM COMANDITA SIMPLES'
+        WHEN 2097 THEN 'SOCIEDADE EMPRESÁRIA EM COMANDITA POR AÇÕES'
+        WHEN 2127 THEN 'SOCIEDADE EM CONTA DE PARTICIPAÇÃO'
+        WHEN 2135 THEN 'EMPRESÁRIO (INDIVIDUAL)'
+        WHEN 2143 THEN 'COOPERATIVA'
+        WHEN 2151 THEN 'CONSÓRCIO DE SOCIEDADES'
+        WHEN 2160 THEN 'GRUPO DE SOCIEDADES'
+        WHEN 2178 THEN 'ESTABELECIMENTO NO BRASIL DE SOCIEDADE ESTRANGEIRA'
+        WHEN 2194 THEN 'ESTAB NO BRASIL EMPR BINACIONAL ARGENTINA-BRASIL'
+        WHEN 2216 THEN 'EMPRESA DOMICILIADA NO EXTERIOR'
+        WHEN 2224 THEN 'CLUBE/FUNDO DE INVESTIMENTO'
+        WHEN 2232 THEN 'SOCIEDADE SIMPLES PURA'
+        WHEN 2240 THEN 'SOCIEDADE SIMPLES LIMITADA'
+        WHEN 2259 THEN 'SOCIEDADE SIMPLES EM NOME COLETIVO'
+        WHEN 2267 THEN 'SOCIEDADE SIMPLES EM COMANDITA SIMPLES'
+        WHEN 2275 THEN 'EMPRESA BINACIONAL'
+        WHEN 2283 THEN 'CONSÓRCIO DE EMPREGADORES'
+        WHEN 2291 THEN 'CONSÓRCIO SIMPLES'
+        WHEN 2305 THEN 'EMPR INDIVID RESPONSAB LIMITADA (NATUR EMPRESÁRIA)'
+        WHEN 2313 THEN 'EMPR INDIVID RESPONSAB LIMITADA (NATUREZA SIMPLES)'
+        WHEN 3034 THEN 'SERVIÇO NOTARIAL E REGISTRAL (CARTÓRIO)'
+        WHEN 3069 THEN 'FUNDAÇÃO PRIVADA'
+        WHEN 3077 THEN 'SERVIÇO SOCIAL AUTÔNOMO'
+        WHEN 3085 THEN 'CONDOMÍNIO EDILÍCIO'
+        WHEN 3107 THEN 'COMISSÃO DE CONCILIAÇÃO PRÉVIA'
+        WHEN 3115 THEN 'ENTIDADE DE MEDIAÇÃO E ARBITRAGEM'
+        WHEN 3123 THEN 'PARTIDO POLÍTICO'
+        WHEN 3131 THEN 'ENTIDADE SINDICAL'
+        WHEN 3204 THEN 'ESTAB NO BRASIL DE FUNDAÇÃO OU ASSOCIAÇÃO ESTRANG'
+        WHEN 3212 THEN 'FUNDAÇÃO OU ASSOCIAÇÃO DOMICILIADA NO EXTERIOR'
+        WHEN 3220 THEN 'ORGANIZAÇÃO RELIGIOSA'
+        WHEN 3239 THEN 'COMUNIDADE INDÍGENA'
+        WHEN 3247 THEN 'FUNDO PRIVADO'
+        WHEN 3999 THEN 'ASSOCIAÇÃO PRIVADA'
+        WHEN 4014 THEN 'EMPRESA INDIVIDUAL IMOBILIÁRIA'
+        WHEN 4022 THEN 'SEGURADO ESPECIAL'
+        WHEN 4081 THEN 'CONTRIBUINTE INDIVIDUAL'
+        WHEN 4090 THEN 'CANDIDATO A CARGO POLÍTICO ELETIVO'
+        WHEN 4111 THEN 'LEILOEIRO'
+        WHEN 5010 THEN 'ORGANIZAÇÃO INTERNACIONAL'
+        WHEN 5029 THEN 'REPRESENTAÇÃO DIPLOMÁTICA ESTRANGEIRA'
+        WHEN 5037 THEN 'OUTRAS INSTITUIÇÕES EXTRATERRITORIAIS'
+        ELSE 'Não Informado'
+    END
+FROM STG.stg_sih</t>
+  </si>
+  <si>
+    <t>SELECT
+    CASE
+        WHEN natureza IN (10,30,31,40,41,50)
+            THEN 'PÚBLICO'
+        WHEN natureza IN (20,22,60,61,63,80)
+            THEN 'PRIVADO'
+        WHEN natureza IN (70,90,91,92,93,94)
+            THEN 'UNIVERSITÁRIO'
+        ELSE 'Não Informado'
+    END
+FROM STG.stg_sih</t>
+  </si>
+  <si>
+    <t>SELECT
+    CASE
+        gestao = '0' THEN 'ESTADUAL'
+        gestao IN ('1', 'M') THEN 'MUNICIPAL PLENA ASSIST'
+        gestao IN ('2', 'E') THEN 'ESTADUAL PLENA'
+        ELSE 'Não Informado' 
+    END
+FROM STG.stg_sih</t>
+  </si>
+  <si>
+    <t>d_especialidade</t>
+  </si>
+  <si>
+    <t>sk_especialidade</t>
+  </si>
+  <si>
+    <t>cd_especialidade</t>
+  </si>
+  <si>
+    <t>ds_especialidade</t>
+  </si>
+  <si>
+    <t>Surrogate Key da dimensão de especialidade.</t>
+  </si>
+  <si>
+    <t>Código identificador da especialidade.</t>
+  </si>
+  <si>
+    <t>Descrição da especialidade.</t>
+  </si>
+  <si>
+    <t>stg_leitos</t>
+  </si>
+  <si>
+    <t>d_procedimento</t>
+  </si>
+  <si>
+    <t>sk_procedimento</t>
+  </si>
+  <si>
+    <t>cd_procedimento</t>
+  </si>
+  <si>
+    <t>ds_procedimento</t>
+  </si>
+  <si>
+    <t>Surrogate Key da dimensão de procedimento.</t>
+  </si>
+  <si>
+    <t>Descrição do procedimento.</t>
+  </si>
+  <si>
+    <t>proc_rea / proc_solic</t>
+  </si>
+  <si>
+    <t>stg_tb_sigtab</t>
+  </si>
+  <si>
+    <t>SELECT proc_rea FROM stg.stg_sih
+UNION
+SELECT proc_solic FROM stg.stg_sih ss</t>
+  </si>
+  <si>
+    <t>f_hospitalizacao</t>
+  </si>
+  <si>
+    <t>sk_municipio_estabelecimento</t>
+  </si>
+  <si>
+    <t>sk_municipio_residencia_paciente</t>
+  </si>
+  <si>
+    <t>sk_procedimento_solicitado</t>
+  </si>
+  <si>
+    <t>sk_procedimento_realizado</t>
+  </si>
+  <si>
+    <t>sk_especialidade_leito</t>
+  </si>
+  <si>
+    <t>sk_cid_diagnostico_primario</t>
+  </si>
+  <si>
+    <t>sk_cid_diagnostico_secundario</t>
+  </si>
+  <si>
+    <t>nu_competencia</t>
+  </si>
+  <si>
+    <t>nu_aih</t>
+  </si>
+  <si>
+    <t>ds_tipo_aih</t>
+  </si>
+  <si>
+    <t>dt_nascimento_paciente</t>
+  </si>
+  <si>
+    <t>qtd_diarias_internacao</t>
+  </si>
+  <si>
+    <t>dt_internacao</t>
+  </si>
+  <si>
+    <t>fl_obito</t>
+  </si>
+  <si>
+    <t>vl_idade_paciente</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Data e mês da competência.</t>
+  </si>
+  <si>
+    <t>Tipo da AIH.</t>
+  </si>
+  <si>
+    <t>Quantidade de diárias de hospitalização.</t>
+  </si>
+  <si>
+    <t>Data da internação.</t>
+  </si>
+  <si>
+    <t>Flag indicando se houve óbito.</t>
+  </si>
+  <si>
+    <t>Data de carga do registro na fato.</t>
+  </si>
+  <si>
+    <t>mes_cmpt + ano_cmpt</t>
+  </si>
+  <si>
+    <t>vl_total_internacao</t>
+  </si>
+  <si>
+    <t>Valor total gasto com a hospitalização.</t>
+  </si>
+  <si>
+    <t>SELECT mes_cmpt || ano_cmpt FROM stg.stg_sih</t>
+  </si>
+  <si>
+    <t>SELECT TO_DATE(nasc, 'YYYYMMDD') FROM stg.stg_sih</t>
+  </si>
+  <si>
+    <t>SELECT TO_DATE(dt_inter, 'YYYYMMDD') FROM stg.stg_sih</t>
+  </si>
+  <si>
+    <t>SELECT TO_DATE(dt_saida, 'YYYYMMDD') FROM stg.stg_sih</t>
+  </si>
+  <si>
+    <t>SELECT CASE morte WHEN 1 THEN 'S' ELSE 'N' END FROM stg.stg_sih</t>
+  </si>
+  <si>
+    <t>f_obito</t>
+  </si>
+  <si>
+    <t>sk_municipio_naturalidade_falecido</t>
+  </si>
+  <si>
+    <t>sk_municipio_ocorrencia_obito</t>
+  </si>
+  <si>
+    <t>sk_municipio_residencia_falecido</t>
+  </si>
+  <si>
+    <t>sk_ocupacao_falecido</t>
+  </si>
+  <si>
+    <t>sk_cid_causa_obito</t>
+  </si>
+  <si>
+    <t>cd_registro</t>
+  </si>
+  <si>
+    <t>ds_assistencia_medica</t>
+  </si>
+  <si>
+    <t>ds_atestante</t>
+  </si>
+  <si>
+    <t>ds_circunstancia_obito</t>
+  </si>
+  <si>
+    <t>nu_crm_medico_atestante</t>
+  </si>
+  <si>
+    <t>dt_cadastro</t>
+  </si>
+  <si>
+    <t>dt_atestado</t>
+  </si>
+  <si>
+    <t>dt_obito</t>
+  </si>
+  <si>
+    <t>dt_nascimento_falecido</t>
+  </si>
+  <si>
+    <t>vl_idade_falecido</t>
+  </si>
+  <si>
+    <t>Código do registro de óbito.</t>
+  </si>
+  <si>
+    <t>Descrição se houve assistência médica.</t>
+  </si>
+  <si>
+    <t>Descrição da circunstância do óbito.</t>
+  </si>
+  <si>
+    <t>Número do CRM do médico atestante.</t>
+  </si>
+  <si>
+    <t>Data do cadastro do óbito.</t>
+  </si>
+  <si>
+    <t>Data do atestado de óbito.</t>
+  </si>
+  <si>
+    <t>Data do óbito.</t>
+  </si>
+  <si>
+    <t>Data de nascimento do falecido.</t>
+  </si>
+  <si>
+    <t>Idade do falecido.</t>
+  </si>
+  <si>
+    <t>contador</t>
+  </si>
+  <si>
+    <t>assistmed</t>
+  </si>
+  <si>
+    <t>Instituição atestante.</t>
+  </si>
+  <si>
+    <t>atestante</t>
+  </si>
+  <si>
+    <t>circobito</t>
+  </si>
+  <si>
+    <t>crm</t>
+  </si>
+  <si>
+    <t>dtcadastro</t>
+  </si>
+  <si>
+    <t>dtatestado</t>
+  </si>
+  <si>
+    <t>dtobito</t>
+  </si>
+  <si>
+    <t>dtnasc</t>
+  </si>
+  <si>
+    <t>SELECT
+    CASE assistmed
+        WHEN 1 THEN 'Com assistência'
+        WHEN 2 THEN 'Sem assistência'
+        WHEN 9 THEN 'Igorado'
+        ELSE NULL
+    END
+FROM stg.stg_sim</t>
+  </si>
+  <si>
+    <t>SELECT
+    CASE atestante
+        WHEN 1 THEN 'Sim'
+        WHEN 2 THEN 'Substituto'
+        WHEN 3 THEN 'IML'
+        WHEN 4 THEN 'SVO'
+        WHEN 5 THEN 'Outros'
+        ELSE NULL
+    END
+FROM stg.stg_sim</t>
+  </si>
+  <si>
+    <t>SELECT
+    CASE circobito
+        WHEN 1 THEN 'Acidente'
+        WHEN 2 THEN 'Suicídio'
+        WHEN 3 THEN 'Homicídio'
+        WHEN 4 THEN 'Outros'
+        WHEN 9 THEN 'Ignorado'
+        ELSE NULL
+    END
+FROM stg.stg_sim</t>
+  </si>
+  <si>
+    <t>SELECT
+    CASE
+        WHEN LEFT(NULLIF(TRIM(sim.idade), ''),1) IN ('1','2','3')
+            THEN 0
+        WHEN LEFT(NULLIF(TRIM(sim.idade), ''),1) = '4'
+            THEN RIGHT(NULLIF(TRIM(sim.idade), ''),2)::INTEGER
+        WHEN LEFT(NULLIF(TRIM(sim.idade), ''),1) = '5'
+            THEN (100 + RIGHT(NULLIF(TRIM(sim.idade), ''),2)::INTEGER)
+        ELSE NULL
+    END
+FROM stg.stg_sim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,8 +1318,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +1335,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +1435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -712,52 +1461,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -766,8 +1479,83 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -785,6 +1573,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1086,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF5F698-E5EC-4645-A911-808BA9B10DE9}">
   <dimension ref="B2:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:F58"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,8 +1888,8 @@
     <col min="2" max="2" width="29.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="182.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="109.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="87.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="102.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1116,7 +1908,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1128,12 +1920,12 @@
       <c r="E3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="5" t="s">
         <v>45</v>
       </c>
@@ -1143,10 +1935,10 @@
       <c r="E4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1158,12 +1950,12 @@
       <c r="E5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>50</v>
       </c>
@@ -1173,10 +1965,10 @@
       <c r="E6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1188,12 +1980,12 @@
       <c r="E7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="5" t="s">
         <v>50</v>
       </c>
@@ -1203,10 +1995,10 @@
       <c r="E8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1218,12 +2010,12 @@
       <c r="E9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="5" t="s">
         <v>60</v>
       </c>
@@ -1233,10 +2025,10 @@
       <c r="E10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="5" t="s">
         <v>50</v>
       </c>
@@ -1246,10 +2038,10 @@
       <c r="E11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>115</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1261,12 +2053,12 @@
       <c r="E12" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="5" t="s">
         <v>116</v>
       </c>
@@ -1276,10 +2068,10 @@
       <c r="E13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1291,12 +2083,12 @@
       <c r="E14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="5" t="s">
         <v>66</v>
       </c>
@@ -1309,7 +2101,7 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="5" t="s">
         <v>67</v>
       </c>
@@ -1322,7 +2114,7 @@
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="5" t="s">
         <v>68</v>
       </c>
@@ -1335,7 +2127,7 @@
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="5" t="s">
         <v>69</v>
       </c>
@@ -1348,7 +2140,7 @@
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="5" t="s">
         <v>70</v>
       </c>
@@ -1361,7 +2153,7 @@
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="5" t="s">
         <v>71</v>
       </c>
@@ -1374,7 +2166,7 @@
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="5" t="s">
         <v>72</v>
       </c>
@@ -1387,7 +2179,7 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="5" t="s">
         <v>73</v>
       </c>
@@ -1400,7 +2192,7 @@
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="5" t="s">
         <v>74</v>
       </c>
@@ -1413,7 +2205,7 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="5" t="s">
         <v>75</v>
       </c>
@@ -1426,7 +2218,7 @@
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="5" t="s">
         <v>76</v>
       </c>
@@ -1439,7 +2231,7 @@
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="5" t="s">
         <v>77</v>
       </c>
@@ -1452,7 +2244,7 @@
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="5" t="s">
         <v>78</v>
       </c>
@@ -1465,7 +2257,7 @@
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="5" t="s">
         <v>79</v>
       </c>
@@ -1478,7 +2270,7 @@
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="5" t="s">
         <v>80</v>
       </c>
@@ -1488,10 +2280,10 @@
       <c r="E29" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1503,12 +2295,12 @@
       <c r="E30" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="5" t="s">
         <v>45</v>
       </c>
@@ -1518,10 +2310,10 @@
       <c r="E31" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="17" t="s">
         <v>107</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1533,12 +2325,12 @@
       <c r="E32" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="5" t="s">
         <v>109</v>
       </c>
@@ -1548,10 +2340,10 @@
       <c r="E33" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="12" t="s">
         <v>123</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1563,10 +2355,10 @@
       <c r="E34" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="15"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="5" t="s">
         <v>150</v>
       </c>
@@ -1576,10 +2368,10 @@
       <c r="E35" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="25"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="5" t="s">
         <v>125</v>
       </c>
@@ -1589,10 +2381,10 @@
       <c r="E36" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="25"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="5" t="s">
         <v>142</v>
       </c>
@@ -1602,10 +2394,10 @@
       <c r="E37" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F37" s="25"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="5" t="s">
         <v>143</v>
       </c>
@@ -1615,10 +2407,10 @@
       <c r="E38" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F38" s="25"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="5" t="s">
         <v>166</v>
       </c>
@@ -1628,10 +2420,10 @@
       <c r="E39" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F39" s="25"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="5" t="s">
         <v>167</v>
       </c>
@@ -1641,10 +2433,10 @@
       <c r="E40" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F40" s="25"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="5" t="s">
         <v>124</v>
       </c>
@@ -1654,10 +2446,10 @@
       <c r="E41" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F41" s="25"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="5" t="s">
         <v>128</v>
       </c>
@@ -1667,10 +2459,10 @@
       <c r="E42" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="25"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="5" t="s">
         <v>172</v>
       </c>
@@ -1680,10 +2472,10 @@
       <c r="E43" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F43" s="25"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="25"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="5" t="s">
         <v>158</v>
       </c>
@@ -1693,10 +2485,10 @@
       <c r="E44" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F44" s="25"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="25"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="5" t="s">
         <v>152</v>
       </c>
@@ -1706,10 +2498,10 @@
       <c r="E45" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F45" s="25"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="5" t="s">
         <v>170</v>
       </c>
@@ -1719,10 +2511,10 @@
       <c r="E46" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="25"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="25"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="5" t="s">
         <v>138</v>
       </c>
@@ -1732,10 +2524,10 @@
       <c r="E47" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="25"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="25"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="5" t="s">
         <v>139</v>
       </c>
@@ -1745,10 +2537,10 @@
       <c r="E48" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F48" s="25"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="25"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="5" t="s">
         <v>160</v>
       </c>
@@ -1758,10 +2550,10 @@
       <c r="E49" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F49" s="25"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="25"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="5" t="s">
         <v>126</v>
       </c>
@@ -1771,10 +2563,10 @@
       <c r="E50" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F50" s="25"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="25"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="13"/>
       <c r="C51" s="5" t="s">
         <v>127</v>
       </c>
@@ -1784,10 +2576,10 @@
       <c r="E51" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F51" s="25"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="25"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="5" t="s">
         <v>156</v>
       </c>
@@ -1797,10 +2589,10 @@
       <c r="E52" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F52" s="25"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="25"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="5" t="s">
         <v>134</v>
       </c>
@@ -1810,10 +2602,10 @@
       <c r="E53" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F53" s="25"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="25"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="5" t="s">
         <v>135</v>
       </c>
@@ -1823,10 +2615,10 @@
       <c r="E54" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F54" s="25"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="25"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="5" t="s">
         <v>162</v>
       </c>
@@ -1836,10 +2628,10 @@
       <c r="E55" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F55" s="25"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="25"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="5" t="s">
         <v>148</v>
       </c>
@@ -1849,10 +2641,10 @@
       <c r="E56" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F56" s="25"/>
+      <c r="F56" s="13"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="25"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="5" t="s">
         <v>146</v>
       </c>
@@ -1862,10 +2654,10 @@
       <c r="E57" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F57" s="25"/>
+      <c r="F57" s="13"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="5" t="s">
         <v>164</v>
       </c>
@@ -1875,276 +2667,276 @@
       <c r="E58" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F58" s="25"/>
-    </row>
-    <row r="59" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="17" t="s">
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="20" t="s">
+      <c r="D59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="17"/>
-      <c r="C60" s="18" t="s">
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60" s="19"/>
+      <c r="C60" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="20" t="s">
+      <c r="D60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="17"/>
-      <c r="C61" s="18" t="s">
+      <c r="F60" s="16"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="19"/>
+      <c r="C61" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="20" t="s">
+      <c r="D61" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="17"/>
-      <c r="C62" s="18" t="s">
+      <c r="F61" s="16"/>
+    </row>
+    <row r="62" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="19"/>
+      <c r="C62" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="20" t="s">
+      <c r="D62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="17"/>
-      <c r="C63" s="18" t="s">
+      <c r="F62" s="16"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="19"/>
+      <c r="C63" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="20" t="s">
+      <c r="D63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="17"/>
-      <c r="C64" s="18" t="s">
+      <c r="F63" s="16"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="19"/>
+      <c r="C64" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="20" t="s">
+      <c r="D64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="17"/>
-      <c r="C65" s="18" t="s">
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="19"/>
+      <c r="C65" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="20" t="s">
+      <c r="D65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="17"/>
-      <c r="C66" s="18" t="s">
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="19"/>
+      <c r="C66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66" s="20" t="s">
+      <c r="D66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="21"/>
-    </row>
-    <row r="67" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="17"/>
-      <c r="C67" s="18" t="s">
+      <c r="F66" s="16"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="19"/>
+      <c r="C67" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="20" t="s">
+      <c r="D67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="17"/>
-      <c r="C68" s="18" t="s">
+      <c r="F67" s="16"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="19"/>
+      <c r="C68" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="20" t="s">
+      <c r="D68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F68" s="21"/>
-    </row>
-    <row r="69" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="17"/>
-      <c r="C69" s="18" t="s">
+      <c r="F68" s="16"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="19"/>
+      <c r="C69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="20" t="s">
+      <c r="D69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="17"/>
-      <c r="C70" s="18" t="s">
+      <c r="F69" s="16"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="19"/>
+      <c r="C70" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E70" s="20" t="s">
+      <c r="D70" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="17"/>
-      <c r="C71" s="18" t="s">
+      <c r="F70" s="16"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="19"/>
+      <c r="C71" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" s="20" t="s">
+      <c r="D71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="2:6" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B72" s="17"/>
-      <c r="C72" s="18" t="s">
+      <c r="F71" s="16"/>
+    </row>
+    <row r="72" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B72" s="19"/>
+      <c r="C72" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="20" t="s">
+      <c r="E72" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="17"/>
-      <c r="C73" s="18" t="s">
+      <c r="F72" s="16"/>
+    </row>
+    <row r="73" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="19"/>
+      <c r="C73" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="20" t="s">
+      <c r="D73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="17"/>
-      <c r="C74" s="18" t="s">
+      <c r="F73" s="16"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="19"/>
+      <c r="C74" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="20" t="s">
+      <c r="D74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="17"/>
-      <c r="C75" s="18" t="s">
+      <c r="F74" s="16"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="19"/>
+      <c r="C75" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" s="20" t="s">
+      <c r="D75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="17"/>
-      <c r="C76" s="18" t="s">
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="19"/>
+      <c r="C76" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76" s="20" t="s">
+      <c r="D76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="23" t="s">
+      <c r="F76" s="16"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E77" s="20" t="s">
+      <c r="D77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="F77" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="24"/>
-      <c r="C78" s="18" t="s">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="18"/>
+      <c r="C78" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D78" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" s="20" t="s">
+      <c r="D78" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F78" s="27"/>
+      <c r="F78" s="15"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="17" t="s">
         <v>113</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -2156,12 +2948,12 @@
       <c r="E79" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="9"/>
+      <c r="B80" s="17"/>
       <c r="C80" s="5" t="s">
         <v>77</v>
       </c>
@@ -2171,48 +2963,2049 @@
       <c r="E80" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F80" s="11"/>
+      <c r="F80" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="F32:F33"/>
     <mergeCell ref="B79:B80"/>
-    <mergeCell ref="F79:F80"/>
     <mergeCell ref="B59:B76"/>
-    <mergeCell ref="F59:F76"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="B34:B58"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B14:B29"/>
+    <mergeCell ref="F34:F58"/>
     <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F34:F58"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="F59:F76"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F14:F29"/>
     <mergeCell ref="F9:F11"/>
-    <mergeCell ref="B14:B29"/>
-    <mergeCell ref="F14:F29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="F7:F8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{FC5CC206-2ADB-4B9B-A725-B7C751650BDC}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{4F4DC5DE-A591-43F3-8473-E2217A3A4E5F}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{3170B0CA-7F61-47B7-BCE1-20FBD4E1E7F6}"/>
-    <hyperlink ref="F9" r:id="rId4" xr:uid="{645E123A-F5EF-47D7-8A96-49C9F7A4E930}"/>
-    <hyperlink ref="F14" r:id="rId5" xr:uid="{ED1ECF57-0974-4D16-83C1-E20CFC8568A2}"/>
-    <hyperlink ref="F30" r:id="rId6" xr:uid="{068A7DBA-2DCC-4EF9-8DD2-BD635990E8E0}"/>
-    <hyperlink ref="F32" r:id="rId7" xr:uid="{8CC42744-232B-45C7-82CE-1BF5B24B8F14}"/>
-    <hyperlink ref="F79" r:id="rId8" xr:uid="{F22B7735-5056-4223-88DB-0CB793F93C65}"/>
-    <hyperlink ref="F12" r:id="rId9" xr:uid="{3CE1A2F4-FEC2-4E22-A16F-6FFF51E86347}"/>
-    <hyperlink ref="F77" r:id="rId10" xr:uid="{5B701926-78D9-4582-9A34-9D57F60F19C9}"/>
+    <hyperlink ref="F77" r:id="rId1" xr:uid="{5B701926-78D9-4582-9A34-9D57F60F19C9}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{3CE1A2F4-FEC2-4E22-A16F-6FFF51E86347}"/>
+    <hyperlink ref="F79" r:id="rId3" xr:uid="{F22B7735-5056-4223-88DB-0CB793F93C65}"/>
+    <hyperlink ref="F32" r:id="rId4" xr:uid="{8CC42744-232B-45C7-82CE-1BF5B24B8F14}"/>
+    <hyperlink ref="F30" r:id="rId5" xr:uid="{068A7DBA-2DCC-4EF9-8DD2-BD635990E8E0}"/>
+    <hyperlink ref="F14" r:id="rId6" xr:uid="{ED1ECF57-0974-4D16-83C1-E20CFC8568A2}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{645E123A-F5EF-47D7-8A96-49C9F7A4E930}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{3170B0CA-7F61-47B7-BCE1-20FBD4E1E7F6}"/>
+    <hyperlink ref="F5" r:id="rId9" xr:uid="{4F4DC5DE-A591-43F3-8473-E2217A3A4E5F}"/>
+    <hyperlink ref="F3" r:id="rId10" xr:uid="{FC5CC206-2ADB-4B9B-A725-B7C751650BDC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F42A9D-3213-4597-A7ED-0BF6551BCD94}">
+  <dimension ref="B2:H101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="34" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="78.42578125" style="29" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="33"/>
+      <c r="C8" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="27"/>
+      <c r="C10" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
+      <c r="C11" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="27"/>
+      <c r="C15" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="27"/>
+      <c r="C16" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="27"/>
+      <c r="C17" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="27"/>
+      <c r="C18" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="27"/>
+      <c r="C19" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="27"/>
+      <c r="C20" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="27"/>
+      <c r="C21" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="27"/>
+      <c r="C22" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="27"/>
+      <c r="C23" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="27"/>
+      <c r="C24" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="27"/>
+      <c r="C25" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="27"/>
+      <c r="C26" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="28"/>
+      <c r="C27" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B29" s="39"/>
+      <c r="C29" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B30" s="39"/>
+      <c r="C30" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="40"/>
+      <c r="C31" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="34"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="27"/>
+      <c r="C33" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="27"/>
+      <c r="C34" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="28"/>
+      <c r="C35" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="33"/>
+      <c r="C37" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B38" s="33"/>
+      <c r="C38" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="33"/>
+      <c r="C39" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" s="34"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="27"/>
+      <c r="C41" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="27"/>
+      <c r="C42" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="27"/>
+      <c r="C43" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="27"/>
+      <c r="C44" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="27"/>
+      <c r="C45" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="25"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="28"/>
+      <c r="C46" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H46" s="25"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H47" s="34"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="33"/>
+      <c r="C48" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G48" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="34"/>
+    </row>
+    <row r="49" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="B49" s="33"/>
+      <c r="C49" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="33"/>
+      <c r="C50" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B51" s="33"/>
+      <c r="C51" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="33"/>
+      <c r="C52" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H52" s="34"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H53" s="25"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="22"/>
+      <c r="C54" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="22"/>
+      <c r="C55" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="22"/>
+      <c r="C56" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H56" s="25"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G57" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H57" s="34"/>
+    </row>
+    <row r="58" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="33"/>
+      <c r="C58" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="H58" s="37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="33"/>
+      <c r="C59" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H59" s="34"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="33"/>
+      <c r="C60" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G60" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H60" s="34"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="H61" s="25"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="22"/>
+      <c r="C62" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="22"/>
+      <c r="C63" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="22"/>
+      <c r="C64" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="22"/>
+      <c r="C65" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="H65" s="25"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="22"/>
+      <c r="C66" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="22"/>
+      <c r="C67" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="22"/>
+      <c r="C68" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="22"/>
+      <c r="C69" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="H69" s="25"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="22"/>
+      <c r="C70" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="22"/>
+      <c r="C71" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="22"/>
+      <c r="C72" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="22"/>
+      <c r="C73" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="H73" s="25"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="22"/>
+      <c r="C74" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="22"/>
+      <c r="C75" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="G75" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H75" s="25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="22"/>
+      <c r="C76" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H76" s="25"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="22"/>
+      <c r="C77" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="G77" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H77" s="25"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="22"/>
+      <c r="C78" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="22"/>
+      <c r="C79" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="22"/>
+      <c r="C80" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="22"/>
+      <c r="C81" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="G81" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="H81" s="25"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="22"/>
+      <c r="C82" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H82" s="25"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F83" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="G83" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="H83" s="34"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="33"/>
+      <c r="C84" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F84" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="G84" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="H84" s="34"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="33"/>
+      <c r="C85" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F85" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="G85" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="H85" s="34"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="33"/>
+      <c r="C86" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F86" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="G86" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="H86" s="34"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="33"/>
+      <c r="C87" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="G87" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="H87" s="34"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="33"/>
+      <c r="C88" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="F88" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="G88" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H88" s="34"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="33"/>
+      <c r="C89" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F89" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="G89" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="H89" s="34"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="33"/>
+      <c r="C90" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="F90" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G90" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="H90" s="34"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="33"/>
+      <c r="C91" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="F91" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G91" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="H91" s="34"/>
+    </row>
+    <row r="92" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B92" s="33"/>
+      <c r="C92" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="F92" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G92" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="H92" s="37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B93" s="33"/>
+      <c r="C93" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="F93" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G93" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="H93" s="37" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B94" s="33"/>
+      <c r="C94" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="F94" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G94" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="H94" s="37" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="33"/>
+      <c r="C95" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="F95" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G95" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="H95" s="34"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="33"/>
+      <c r="C96" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="E96" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="F96" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G96" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="H96" s="34"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="33"/>
+      <c r="C97" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="D97" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="E97" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="F97" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G97" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="H97" s="34"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="33"/>
+      <c r="C98" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="E98" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="F98" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G98" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="H98" s="34"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="33"/>
+      <c r="C99" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="D99" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="E99" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="F99" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G99" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="H99" s="34"/>
+    </row>
+    <row r="100" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="B100" s="33"/>
+      <c r="C100" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="F100" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G100" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="H100" s="37" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="33"/>
+      <c r="C101" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E101" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="F101" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G101" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H101" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B82"/>
+    <mergeCell ref="B83:B101"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/Mapeamento de origens TCCII.xlsx
+++ b/docs/Mapeamento de origens TCCII.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bc42174f983b264/Documentos/UFES/TCC2/BI_SAUDE_MENTAL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{772A557B-B65B-42FB-8B63-9AB8F2FEFA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{772A557B-B65B-42FB-8B63-9AB8F2FEFA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{272DAD05-4F49-4A68-95CD-654E37D09C44}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{9D1109E8-3E18-4A0D-9A31-4EC6D9E8A1E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{9D1109E8-3E18-4A0D-9A31-4EC6D9E8A1E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="STAGES" sheetId="1" r:id="rId1"/>
+    <sheet name="Dicionário de Dados da Origem" sheetId="1" r:id="rId1"/>
     <sheet name="Mapeamento de Origens" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1435,7 +1435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1461,16 +1461,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1485,32 +1515,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1521,32 +1539,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1556,6 +1550,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1573,10 +1570,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1878,7 +1871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF5F698-E5EC-4645-A911-808BA9B10DE9}">
   <dimension ref="B2:F80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
@@ -1908,7 +1901,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1920,12 +1913,12 @@
       <c r="E3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="5" t="s">
         <v>45</v>
       </c>
@@ -1935,10 +1928,10 @@
       <c r="E4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1950,12 +1943,12 @@
       <c r="E5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="27" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="5" t="s">
         <v>50</v>
       </c>
@@ -1965,10 +1958,10 @@
       <c r="E6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1980,12 +1973,12 @@
       <c r="E7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="27" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5" t="s">
         <v>50</v>
       </c>
@@ -1995,10 +1988,10 @@
       <c r="E8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2010,12 +2003,12 @@
       <c r="E9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="27" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="5" t="s">
         <v>60</v>
       </c>
@@ -2025,10 +2018,10 @@
       <c r="E10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="5" t="s">
         <v>50</v>
       </c>
@@ -2038,10 +2031,10 @@
       <c r="E11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="20" t="s">
         <v>115</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -2053,12 +2046,12 @@
       <c r="E12" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="27" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="5" t="s">
         <v>116</v>
       </c>
@@ -2068,10 +2061,10 @@
       <c r="E13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -2083,12 +2076,12 @@
       <c r="E14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="27" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="5" t="s">
         <v>66</v>
       </c>
@@ -2098,10 +2091,10 @@
       <c r="E15" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="5" t="s">
         <v>67</v>
       </c>
@@ -2111,10 +2104,10 @@
       <c r="E16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="5" t="s">
         <v>68</v>
       </c>
@@ -2124,10 +2117,10 @@
       <c r="E17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="5" t="s">
         <v>69</v>
       </c>
@@ -2137,10 +2130,10 @@
       <c r="E18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="5" t="s">
         <v>70</v>
       </c>
@@ -2150,10 +2143,10 @@
       <c r="E19" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="5" t="s">
         <v>71</v>
       </c>
@@ -2163,10 +2156,10 @@
       <c r="E20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="5" t="s">
         <v>72</v>
       </c>
@@ -2176,10 +2169,10 @@
       <c r="E21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="5" t="s">
         <v>73</v>
       </c>
@@ -2189,10 +2182,10 @@
       <c r="E22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="5" t="s">
         <v>74</v>
       </c>
@@ -2202,10 +2195,10 @@
       <c r="E23" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="5" t="s">
         <v>75</v>
       </c>
@@ -2215,10 +2208,10 @@
       <c r="E24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="5" t="s">
         <v>76</v>
       </c>
@@ -2228,10 +2221,10 @@
       <c r="E25" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="5" t="s">
         <v>77</v>
       </c>
@@ -2241,10 +2234,10 @@
       <c r="E26" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="5" t="s">
         <v>78</v>
       </c>
@@ -2254,10 +2247,10 @@
       <c r="E27" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="5" t="s">
         <v>79</v>
       </c>
@@ -2267,10 +2260,10 @@
       <c r="E28" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="17"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="5" t="s">
         <v>80</v>
       </c>
@@ -2280,10 +2273,10 @@
       <c r="E29" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="28"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2295,12 +2288,12 @@
       <c r="E30" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="17"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="5" t="s">
         <v>45</v>
       </c>
@@ -2310,10 +2303,10 @@
       <c r="E31" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="19" t="s">
         <v>107</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -2325,12 +2318,12 @@
       <c r="E32" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="27" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="17"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="5" t="s">
         <v>109</v>
       </c>
@@ -2340,10 +2333,10 @@
       <c r="E33" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="28"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="20" t="s">
         <v>123</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -2355,10 +2348,10 @@
       <c r="E34" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="12"/>
+      <c r="F34" s="20"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="5" t="s">
         <v>150</v>
       </c>
@@ -2368,10 +2361,10 @@
       <c r="E35" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="13"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="5" t="s">
         <v>125</v>
       </c>
@@ -2381,10 +2374,10 @@
       <c r="E36" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="13"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="5" t="s">
         <v>142</v>
       </c>
@@ -2394,10 +2387,10 @@
       <c r="E37" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="5" t="s">
         <v>143</v>
       </c>
@@ -2407,10 +2400,10 @@
       <c r="E38" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F38" s="13"/>
+      <c r="F38" s="23"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="5" t="s">
         <v>166</v>
       </c>
@@ -2420,10 +2413,10 @@
       <c r="E39" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F39" s="13"/>
+      <c r="F39" s="23"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="5" t="s">
         <v>167</v>
       </c>
@@ -2433,10 +2426,10 @@
       <c r="E40" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F40" s="13"/>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="13"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="5" t="s">
         <v>124</v>
       </c>
@@ -2446,10 +2439,10 @@
       <c r="E41" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F41" s="13"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="13"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="5" t="s">
         <v>128</v>
       </c>
@@ -2459,10 +2452,10 @@
       <c r="E42" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="13"/>
+      <c r="F42" s="23"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="13"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="5" t="s">
         <v>172</v>
       </c>
@@ -2472,10 +2465,10 @@
       <c r="E43" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F43" s="13"/>
+      <c r="F43" s="23"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="13"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="5" t="s">
         <v>158</v>
       </c>
@@ -2485,10 +2478,10 @@
       <c r="E44" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="23"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="5" t="s">
         <v>152</v>
       </c>
@@ -2498,10 +2491,10 @@
       <c r="E45" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F45" s="13"/>
+      <c r="F45" s="23"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="13"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="5" t="s">
         <v>170</v>
       </c>
@@ -2511,10 +2504,10 @@
       <c r="E46" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="23"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="13"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="5" t="s">
         <v>138</v>
       </c>
@@ -2524,10 +2517,10 @@
       <c r="E47" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="13"/>
+      <c r="F47" s="23"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="13"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="5" t="s">
         <v>139</v>
       </c>
@@ -2537,10 +2530,10 @@
       <c r="E48" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F48" s="13"/>
+      <c r="F48" s="23"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="13"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="5" t="s">
         <v>160</v>
       </c>
@@ -2550,10 +2543,10 @@
       <c r="E49" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F49" s="13"/>
+      <c r="F49" s="23"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="13"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="5" t="s">
         <v>126</v>
       </c>
@@ -2563,10 +2556,10 @@
       <c r="E50" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F50" s="13"/>
+      <c r="F50" s="23"/>
     </row>
     <row r="51" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="13"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="5" t="s">
         <v>127</v>
       </c>
@@ -2576,10 +2569,10 @@
       <c r="E51" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="23"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="13"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="5" t="s">
         <v>156</v>
       </c>
@@ -2589,10 +2582,10 @@
       <c r="E52" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F52" s="13"/>
+      <c r="F52" s="23"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="13"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="5" t="s">
         <v>134</v>
       </c>
@@ -2602,10 +2595,10 @@
       <c r="E53" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F53" s="13"/>
+      <c r="F53" s="23"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="13"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="5" t="s">
         <v>135</v>
       </c>
@@ -2615,10 +2608,10 @@
       <c r="E54" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F54" s="13"/>
+      <c r="F54" s="23"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="13"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="5" t="s">
         <v>162</v>
       </c>
@@ -2628,10 +2621,10 @@
       <c r="E55" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F55" s="13"/>
+      <c r="F55" s="23"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="13"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="5" t="s">
         <v>148</v>
       </c>
@@ -2641,10 +2634,10 @@
       <c r="E56" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F56" s="13"/>
+      <c r="F56" s="23"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="13"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="5" t="s">
         <v>146</v>
       </c>
@@ -2654,10 +2647,10 @@
       <c r="E57" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F57" s="13"/>
+      <c r="F57" s="23"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="18"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="5" t="s">
         <v>164</v>
       </c>
@@ -2667,10 +2660,10 @@
       <c r="E58" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F58" s="13"/>
+      <c r="F58" s="23"/>
     </row>
     <row r="59" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -2682,10 +2675,10 @@
       <c r="E59" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F59" s="16"/>
+      <c r="F59" s="26"/>
     </row>
     <row r="60" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="19"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="5" t="s">
         <v>4</v>
       </c>
@@ -2695,10 +2688,10 @@
       <c r="E60" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F60" s="16"/>
+      <c r="F60" s="26"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="19"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="5" t="s">
         <v>5</v>
       </c>
@@ -2708,10 +2701,10 @@
       <c r="E61" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="16"/>
+      <c r="F61" s="26"/>
     </row>
     <row r="62" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="19"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="5" t="s">
         <v>6</v>
       </c>
@@ -2721,10 +2714,10 @@
       <c r="E62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F62" s="16"/>
+      <c r="F62" s="26"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="19"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="5" t="s">
         <v>7</v>
       </c>
@@ -2734,10 +2727,10 @@
       <c r="E63" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F63" s="16"/>
+      <c r="F63" s="26"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="19"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="5" t="s">
         <v>8</v>
       </c>
@@ -2747,10 +2740,10 @@
       <c r="E64" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F64" s="16"/>
+      <c r="F64" s="26"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="19"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="5" t="s">
         <v>9</v>
       </c>
@@ -2760,10 +2753,10 @@
       <c r="E65" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="16"/>
+      <c r="F65" s="26"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="19"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="5" t="s">
         <v>10</v>
       </c>
@@ -2773,10 +2766,10 @@
       <c r="E66" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="16"/>
+      <c r="F66" s="26"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="19"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="5" t="s">
         <v>11</v>
       </c>
@@ -2786,10 +2779,10 @@
       <c r="E67" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="16"/>
+      <c r="F67" s="26"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="19"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="5" t="s">
         <v>12</v>
       </c>
@@ -2799,10 +2792,10 @@
       <c r="E68" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F68" s="16"/>
+      <c r="F68" s="26"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="19"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="5" t="s">
         <v>13</v>
       </c>
@@ -2812,10 +2805,10 @@
       <c r="E69" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F69" s="16"/>
+      <c r="F69" s="26"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="19"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="5" t="s">
         <v>14</v>
       </c>
@@ -2825,10 +2818,10 @@
       <c r="E70" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="16"/>
+      <c r="F70" s="26"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="19"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="5" t="s">
         <v>15</v>
       </c>
@@ -2838,10 +2831,10 @@
       <c r="E71" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="16"/>
+      <c r="F71" s="26"/>
     </row>
     <row r="72" spans="2:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B72" s="19"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="5" t="s">
         <v>16</v>
       </c>
@@ -2851,10 +2844,10 @@
       <c r="E72" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F72" s="16"/>
+      <c r="F72" s="26"/>
     </row>
     <row r="73" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B73" s="19"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="5" t="s">
         <v>17</v>
       </c>
@@ -2864,10 +2857,10 @@
       <c r="E73" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F73" s="16"/>
+      <c r="F73" s="26"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="19"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="5" t="s">
         <v>18</v>
       </c>
@@ -2877,10 +2870,10 @@
       <c r="E74" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="16"/>
+      <c r="F74" s="26"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="19"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="5" t="s">
         <v>19</v>
       </c>
@@ -2890,10 +2883,10 @@
       <c r="E75" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F75" s="16"/>
+      <c r="F75" s="26"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="19"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="5" t="s">
         <v>20</v>
       </c>
@@ -2903,10 +2896,10 @@
       <c r="E76" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F76" s="16"/>
+      <c r="F76" s="26"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="20" t="s">
         <v>120</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -2918,12 +2911,12 @@
       <c r="E77" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F77" s="14" t="s">
+      <c r="F77" s="24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="18"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="5" t="s">
         <v>116</v>
       </c>
@@ -2933,10 +2926,10 @@
       <c r="E78" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F78" s="15"/>
+      <c r="F78" s="25"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="19" t="s">
         <v>113</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -2948,12 +2941,12 @@
       <c r="E79" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="27" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="17"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="5" t="s">
         <v>77</v>
       </c>
@@ -2963,10 +2956,27 @@
       <c r="E80" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F80" s="10"/>
+      <c r="F80" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F14:F29"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F34:F58"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F59:F76"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B14:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B32:B33"/>
@@ -2974,23 +2984,6 @@
     <mergeCell ref="B59:B76"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="B34:B58"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B14:B29"/>
-    <mergeCell ref="F34:F58"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F59:F76"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F14:F29"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F77" r:id="rId1" xr:uid="{5B701926-78D9-4582-9A34-9D57F60F19C9}"/>
@@ -3013,35 +3006,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F42A9D-3213-4597-A7ED-0BF6551BCD94}">
   <dimension ref="B2:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="34" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" style="29" customWidth="1"/>
-    <col min="8" max="8" width="78.42578125" style="29" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="1.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="34" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="78.42578125" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -3056,10 +3049,10 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -3067,1929 +3060,1930 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="34"/>
-    </row>
-    <row r="5" spans="2:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="B5" s="33"/>
-      <c r="C5" s="34" t="s">
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B5" s="30"/>
+      <c r="C5" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="34" t="s">
+    <row r="6" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B6" s="30"/>
+      <c r="C6" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="18" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="34" t="s">
+      <c r="D7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="14" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="25"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="25"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="25"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="25"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
-      <c r="C18" s="31" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="25"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="25"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="31" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="25"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="25" t="s">
+      <c r="D22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="25"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
-      <c r="C23" s="31" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="25"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
-      <c r="C24" s="31" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="25" t="s">
+      <c r="D24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H24" s="25"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="25" t="s">
+      <c r="D25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="25"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
-      <c r="C26" s="31" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="25" t="s">
+      <c r="D26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="25"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
-      <c r="C27" s="31" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="D28" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="34" t="s">
+      <c r="D28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="H28" s="34"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B29" s="39"/>
-      <c r="C29" s="34" t="s">
+      <c r="B29" s="37"/>
+      <c r="C29" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="D29" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="34" t="s">
+      <c r="D29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="18" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B30" s="39"/>
-      <c r="C30" s="34" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="D30" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="34" t="s">
+      <c r="D30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="18" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="40"/>
-      <c r="C31" s="34" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="H31" s="34"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="25" t="s">
+      <c r="D32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="H32" s="25"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="25" t="s">
+      <c r="D33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="H33" s="25"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="27"/>
-      <c r="C34" s="25" t="s">
+      <c r="B34" s="33"/>
+      <c r="C34" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="25" t="s">
+      <c r="D34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="25"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
-      <c r="C35" s="25" t="s">
+      <c r="B35" s="34"/>
+      <c r="C35" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="H35" s="25"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D36" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="34" t="s">
+      <c r="D36" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="F36" s="35" t="s">
+      <c r="F36" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="G36" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="H36" s="34"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="33"/>
-      <c r="C37" s="34" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="D37" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="34" t="s">
+      <c r="D37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G37" s="34" t="s">
+      <c r="G37" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H37" s="34"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B38" s="33"/>
-      <c r="C38" s="34" t="s">
+      <c r="B38" s="30"/>
+      <c r="C38" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D38" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="34" t="s">
+      <c r="D38" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G38" s="34" t="s">
+      <c r="G38" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H38" s="37" t="s">
+      <c r="H38" s="18" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
-      <c r="C39" s="34" t="s">
+      <c r="B39" s="30"/>
+      <c r="C39" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G39" s="34" t="s">
+      <c r="G39" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="H39" s="34"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D40" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="25" t="s">
+      <c r="D40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="H40" s="25"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="25" t="s">
+      <c r="D41" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="25"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="27"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="33"/>
+      <c r="C42" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D42" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="25" t="s">
+      <c r="D42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="25"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="27"/>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="33"/>
+      <c r="C43" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="D43" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="25" t="s">
+      <c r="D43" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H43" s="25"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="27"/>
-      <c r="C44" s="25" t="s">
+      <c r="B44" s="33"/>
+      <c r="C44" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D44" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="25" t="s">
+      <c r="D44" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H44" s="25"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="27"/>
-      <c r="C45" s="25" t="s">
+      <c r="B45" s="33"/>
+      <c r="C45" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D45" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="25" t="s">
+      <c r="D45" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H45" s="25"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="28"/>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="34"/>
+      <c r="C46" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G46" s="25" t="s">
+      <c r="G46" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="H46" s="25"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="D47" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="34" t="s">
+      <c r="D47" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="F47" s="35" t="s">
+      <c r="F47" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G47" s="34" t="s">
+      <c r="G47" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="H47" s="34"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-      <c r="C48" s="34" t="s">
+      <c r="B48" s="30"/>
+      <c r="C48" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="D48" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="34" t="s">
+      <c r="D48" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="35" t="s">
+      <c r="F48" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="G48" s="34" t="s">
+      <c r="G48" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="H48" s="34"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="2:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="B49" s="33"/>
-      <c r="C49" s="34" t="s">
+      <c r="B49" s="30"/>
+      <c r="C49" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="D49" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="34" t="s">
+      <c r="D49" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="F49" s="35" t="s">
+      <c r="F49" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="G49" s="34" t="s">
+      <c r="G49" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H49" s="37" t="s">
+      <c r="H49" s="18" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B50" s="33"/>
-      <c r="C50" s="34" t="s">
+      <c r="B50" s="30"/>
+      <c r="C50" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="D50" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="34" t="s">
+      <c r="D50" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F50" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="G50" s="34" t="s">
+      <c r="G50" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="H50" s="37" t="s">
+      <c r="H50" s="18" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="B51" s="33"/>
-      <c r="C51" s="34" t="s">
+      <c r="B51" s="30"/>
+      <c r="C51" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="D51" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="34" t="s">
+      <c r="D51" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="F51" s="35" t="s">
+      <c r="F51" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="G51" s="34" t="s">
+      <c r="G51" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H51" s="37" t="s">
+      <c r="H51" s="18" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="33"/>
-      <c r="C52" s="34" t="s">
+      <c r="B52" s="30"/>
+      <c r="C52" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="F52" s="35" t="s">
+      <c r="F52" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G52" s="34" t="s">
+      <c r="G52" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="H52" s="34"/>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D53" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="25" t="s">
+      <c r="D53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="H53" s="25"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="22"/>
-      <c r="C54" s="25" t="s">
+      <c r="B54" s="31"/>
+      <c r="C54" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D54" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="25" t="s">
+      <c r="D54" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H54" s="25"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="22"/>
-      <c r="C55" s="25" t="s">
+      <c r="B55" s="31"/>
+      <c r="C55" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="D55" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="25" t="s">
+      <c r="D55" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="G55" s="25" t="s">
+      <c r="G55" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H55" s="25"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="22"/>
-      <c r="C56" s="25" t="s">
+      <c r="B56" s="31"/>
+      <c r="C56" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="G56" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="H56" s="25"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D57" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="34" t="s">
+      <c r="D57" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="F57" s="35" t="s">
+      <c r="F57" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G57" s="34" t="s">
+      <c r="G57" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="H57" s="34"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B58" s="33"/>
-      <c r="C58" s="34" t="s">
+      <c r="B58" s="30"/>
+      <c r="C58" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="D58" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="34" t="s">
+      <c r="D58" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F58" s="35" t="s">
+      <c r="F58" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="G58" s="34" t="s">
+      <c r="G58" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="H58" s="37" t="s">
+      <c r="H58" s="18" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="33"/>
-      <c r="C59" s="34" t="s">
+      <c r="B59" s="30"/>
+      <c r="C59" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="D59" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="34" t="s">
+      <c r="D59" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="F59" s="35" t="s">
+      <c r="F59" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="G59" s="34" t="s">
+      <c r="G59" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="H59" s="34"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="33"/>
-      <c r="C60" s="34" t="s">
+      <c r="B60" s="30"/>
+      <c r="C60" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D60" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="34" t="s">
+      <c r="D60" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="F60" s="35" t="s">
+      <c r="F60" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="H60" s="34"/>
+      <c r="H60" s="16"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D61" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="25" t="s">
+      <c r="D61" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="G61" s="25" t="s">
+      <c r="G61" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="H61" s="25"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="22"/>
-      <c r="C62" s="25" t="s">
+      <c r="B62" s="31"/>
+      <c r="C62" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="D62" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="25" t="s">
+      <c r="D62" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="G62" s="25" t="s">
+      <c r="G62" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="H62" s="25"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="22"/>
-      <c r="C63" s="25" t="s">
+      <c r="B63" s="31"/>
+      <c r="C63" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D63" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="25" t="s">
+      <c r="D63" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="G63" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="H63" s="25"/>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="22"/>
-      <c r="C64" s="25" t="s">
+      <c r="B64" s="31"/>
+      <c r="C64" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D64" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="25" t="s">
+      <c r="D64" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="F64" s="24" t="s">
+      <c r="F64" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="G64" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="H64" s="25"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="22"/>
-      <c r="C65" s="25" t="s">
+      <c r="B65" s="31"/>
+      <c r="C65" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D65" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="25" t="s">
+      <c r="D65" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F65" s="24" t="s">
+      <c r="F65" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="G65" s="25" t="s">
+      <c r="G65" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="H65" s="25"/>
+      <c r="H65" s="12"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="22"/>
-      <c r="C66" s="25" t="s">
+      <c r="B66" s="31"/>
+      <c r="C66" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D66" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66" s="25" t="s">
+      <c r="D66" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F66" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="G66" s="25" t="s">
+      <c r="G66" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="H66" s="25"/>
+      <c r="H66" s="12"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="22"/>
-      <c r="C67" s="25" t="s">
+      <c r="B67" s="31"/>
+      <c r="C67" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="D67" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="25" t="s">
+      <c r="D67" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="F67" s="24" t="s">
+      <c r="F67" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="G67" s="25" t="s">
+      <c r="G67" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="H67" s="25"/>
+      <c r="H67" s="12"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="22"/>
-      <c r="C68" s="25" t="s">
+      <c r="B68" s="31"/>
+      <c r="C68" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D68" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" s="25" t="s">
+      <c r="D68" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="F68" s="24" t="s">
+      <c r="F68" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="G68" s="25" t="s">
+      <c r="G68" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="H68" s="25"/>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="22"/>
-      <c r="C69" s="25" t="s">
+      <c r="B69" s="31"/>
+      <c r="C69" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="D69" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="25" t="s">
+      <c r="D69" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F69" s="24" t="s">
+      <c r="F69" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="G69" s="25" t="s">
+      <c r="G69" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="H69" s="25"/>
+      <c r="H69" s="12"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="22"/>
-      <c r="C70" s="25" t="s">
+      <c r="B70" s="31"/>
+      <c r="C70" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="D70" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70" s="25" t="s">
+      <c r="D70" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="F70" s="24" t="s">
+      <c r="F70" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="G70" s="25" t="s">
+      <c r="G70" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="H70" s="25"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="22"/>
-      <c r="C71" s="25" t="s">
+      <c r="B71" s="31"/>
+      <c r="C71" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="D71" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="25" t="s">
+      <c r="D71" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="F71" s="24" t="s">
+      <c r="F71" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="G71" s="25" t="s">
+      <c r="G71" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="H71" s="25"/>
+      <c r="H71" s="12"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="22"/>
-      <c r="C72" s="25" t="s">
+      <c r="B72" s="31"/>
+      <c r="C72" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="D72" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" s="25" t="s">
+      <c r="D72" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F72" s="24" t="s">
+      <c r="F72" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G72" s="25" t="s">
+      <c r="G72" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="H72" s="25" t="s">
+      <c r="H72" s="12" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="22"/>
-      <c r="C73" s="25" t="s">
+      <c r="B73" s="31"/>
+      <c r="C73" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="D73" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="25" t="s">
+      <c r="D73" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F73" s="24" t="s">
+      <c r="F73" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G73" s="25" t="s">
+      <c r="G73" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="H73" s="25"/>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="22"/>
-      <c r="C74" s="25" t="s">
+      <c r="B74" s="31"/>
+      <c r="C74" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="D74" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="25" t="s">
+      <c r="D74" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="F74" s="24" t="s">
+      <c r="F74" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G74" s="25" t="s">
+      <c r="G74" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="H74" s="25"/>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="22"/>
-      <c r="C75" s="25" t="s">
+      <c r="B75" s="31"/>
+      <c r="C75" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="E75" s="25" t="s">
+      <c r="E75" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F75" s="24" t="s">
+      <c r="F75" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G75" s="25" t="s">
+      <c r="G75" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H75" s="25" t="s">
+      <c r="H75" s="12" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="22"/>
-      <c r="C76" s="25" t="s">
+      <c r="B76" s="31"/>
+      <c r="C76" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="D76" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76" s="25" t="s">
+      <c r="D76" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="F76" s="24" t="s">
+      <c r="F76" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G76" s="25" t="s">
+      <c r="G76" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H76" s="25"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="22"/>
-      <c r="C77" s="25" t="s">
+      <c r="B77" s="31"/>
+      <c r="C77" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E77" s="25" t="s">
+      <c r="E77" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="F77" s="24" t="s">
+      <c r="F77" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G77" s="25" t="s">
+      <c r="G77" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H77" s="25"/>
+      <c r="H77" s="12"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="22"/>
-      <c r="C78" s="25" t="s">
+      <c r="B78" s="31"/>
+      <c r="C78" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="E78" s="25" t="s">
+      <c r="E78" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="F78" s="24" t="s">
+      <c r="F78" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G78" s="25" t="s">
+      <c r="G78" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="H78" s="25" t="s">
+      <c r="H78" s="12" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="22"/>
-      <c r="C79" s="25" t="s">
+      <c r="B79" s="31"/>
+      <c r="C79" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="E79" s="25" t="s">
+      <c r="E79" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F79" s="24" t="s">
+      <c r="F79" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G79" s="25" t="s">
+      <c r="G79" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H79" s="25" t="s">
+      <c r="H79" s="12" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="22"/>
-      <c r="C80" s="25" t="s">
+      <c r="B80" s="31"/>
+      <c r="C80" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="D80" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E80" s="25" t="s">
+      <c r="D80" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="F80" s="24" t="s">
+      <c r="F80" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G80" s="25" t="s">
+      <c r="G80" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H80" s="25" t="s">
+      <c r="H80" s="12" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="22"/>
-      <c r="C81" s="25" t="s">
+      <c r="B81" s="31"/>
+      <c r="C81" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="D81" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E81" s="25" t="s">
+      <c r="D81" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="F81" s="24" t="s">
+      <c r="F81" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G81" s="25" t="s">
+      <c r="G81" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="H81" s="25"/>
+      <c r="H81" s="12"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="22"/>
-      <c r="C82" s="25" t="s">
+      <c r="B82" s="31"/>
+      <c r="C82" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E82" s="25" t="s">
+      <c r="E82" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="F82" s="24" t="s">
+      <c r="F82" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G82" s="25" t="s">
+      <c r="G82" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="H82" s="25"/>
+      <c r="H82" s="12"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="33" t="s">
+      <c r="B83" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="D83" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83" s="34" t="s">
+      <c r="D83" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="F83" s="35" t="s">
+      <c r="F83" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="G83" s="34" t="s">
+      <c r="G83" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H83" s="34"/>
+      <c r="H83" s="16"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="33"/>
-      <c r="C84" s="34" t="s">
+      <c r="B84" s="30"/>
+      <c r="C84" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="D84" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84" s="34" t="s">
+      <c r="D84" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="F84" s="35" t="s">
+      <c r="F84" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="G84" s="34" t="s">
+      <c r="G84" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H84" s="34"/>
+      <c r="H84" s="16"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="33"/>
-      <c r="C85" s="34" t="s">
+      <c r="B85" s="30"/>
+      <c r="C85" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="D85" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85" s="34" t="s">
+      <c r="D85" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="F85" s="35" t="s">
+      <c r="F85" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="G85" s="34" t="s">
+      <c r="G85" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H85" s="34"/>
+      <c r="H85" s="16"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="33"/>
-      <c r="C86" s="34" t="s">
+      <c r="B86" s="30"/>
+      <c r="C86" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="D86" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" s="34" t="s">
+      <c r="D86" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="F86" s="35" t="s">
+      <c r="F86" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="G86" s="34" t="s">
+      <c r="G86" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="H86" s="34"/>
+      <c r="H86" s="16"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="33"/>
-      <c r="C87" s="34" t="s">
+      <c r="B87" s="30"/>
+      <c r="C87" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D87" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E87" s="34" t="s">
+      <c r="D87" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F87" s="35" t="s">
+      <c r="F87" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="G87" s="34" t="s">
+      <c r="G87" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="H87" s="34"/>
+      <c r="H87" s="16"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="33"/>
-      <c r="C88" s="34" t="s">
+      <c r="B88" s="30"/>
+      <c r="C88" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="D88" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E88" s="34" t="s">
+      <c r="D88" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="F88" s="35" t="s">
+      <c r="F88" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="G88" s="34" t="s">
+      <c r="G88" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="H88" s="34"/>
+      <c r="H88" s="16"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="33"/>
-      <c r="C89" s="34" t="s">
+      <c r="B89" s="30"/>
+      <c r="C89" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D89" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E89" s="34" t="s">
+      <c r="D89" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="F89" s="35" t="s">
+      <c r="F89" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="G89" s="34" t="s">
+      <c r="G89" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="H89" s="34"/>
+      <c r="H89" s="16"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="33"/>
-      <c r="C90" s="34" t="s">
+      <c r="B90" s="30"/>
+      <c r="C90" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="D90" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E90" s="34" t="s">
+      <c r="D90" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="F90" s="35" t="s">
+      <c r="F90" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="G90" s="34" t="s">
+      <c r="G90" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="H90" s="34"/>
+      <c r="H90" s="16"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="33"/>
-      <c r="C91" s="34" t="s">
+      <c r="B91" s="30"/>
+      <c r="C91" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="D91" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E91" s="34" t="s">
+      <c r="D91" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="F91" s="35" t="s">
+      <c r="F91" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G91" s="34" t="s">
+      <c r="G91" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="H91" s="34"/>
+      <c r="H91" s="16"/>
     </row>
     <row r="92" spans="2:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="B92" s="33"/>
-      <c r="C92" s="34" t="s">
+      <c r="B92" s="30"/>
+      <c r="C92" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="D92" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E92" s="34" t="s">
+      <c r="D92" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="F92" s="35" t="s">
+      <c r="F92" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G92" s="34" t="s">
+      <c r="G92" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="H92" s="37" t="s">
+      <c r="H92" s="18" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="B93" s="33"/>
-      <c r="C93" s="34" t="s">
+      <c r="B93" s="30"/>
+      <c r="C93" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="D93" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E93" s="34" t="s">
+      <c r="D93" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="F93" s="35" t="s">
+      <c r="F93" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G93" s="34" t="s">
+      <c r="G93" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="H93" s="37" t="s">
+      <c r="H93" s="18" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="B94" s="33"/>
-      <c r="C94" s="34" t="s">
+      <c r="B94" s="30"/>
+      <c r="C94" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="D94" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E94" s="34" t="s">
+      <c r="D94" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="F94" s="35" t="s">
+      <c r="F94" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G94" s="34" t="s">
+      <c r="G94" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="H94" s="37" t="s">
+      <c r="H94" s="18" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="33"/>
-      <c r="C95" s="34" t="s">
+      <c r="B95" s="30"/>
+      <c r="C95" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="D95" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E95" s="34" t="s">
+      <c r="D95" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="F95" s="35" t="s">
+      <c r="F95" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G95" s="34" t="s">
+      <c r="G95" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="H95" s="34"/>
+      <c r="H95" s="16"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="33"/>
-      <c r="C96" s="34" t="s">
+      <c r="B96" s="30"/>
+      <c r="C96" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="D96" s="35" t="s">
+      <c r="D96" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="E96" s="34" t="s">
+      <c r="E96" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="F96" s="35" t="s">
+      <c r="F96" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G96" s="34" t="s">
+      <c r="G96" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="H96" s="34"/>
+      <c r="H96" s="16"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="33"/>
-      <c r="C97" s="34" t="s">
+      <c r="B97" s="30"/>
+      <c r="C97" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="D97" s="35" t="s">
+      <c r="D97" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="E97" s="34" t="s">
+      <c r="E97" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="F97" s="35" t="s">
+      <c r="F97" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G97" s="34" t="s">
+      <c r="G97" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="H97" s="34"/>
+      <c r="H97" s="16"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="33"/>
-      <c r="C98" s="34" t="s">
+      <c r="B98" s="30"/>
+      <c r="C98" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="D98" s="35" t="s">
+      <c r="D98" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="E98" s="34" t="s">
+      <c r="E98" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="F98" s="35" t="s">
+      <c r="F98" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G98" s="34" t="s">
+      <c r="G98" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="H98" s="34"/>
+      <c r="H98" s="16"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="33"/>
-      <c r="C99" s="34" t="s">
+      <c r="B99" s="30"/>
+      <c r="C99" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="D99" s="35" t="s">
+      <c r="D99" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="E99" s="34" t="s">
+      <c r="E99" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="F99" s="35" t="s">
+      <c r="F99" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G99" s="34" t="s">
+      <c r="G99" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="H99" s="34"/>
+      <c r="H99" s="16"/>
     </row>
     <row r="100" spans="2:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="B100" s="33"/>
-      <c r="C100" s="34" t="s">
+      <c r="B100" s="30"/>
+      <c r="C100" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="D100" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E100" s="34" t="s">
+      <c r="D100" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="F100" s="35" t="s">
+      <c r="F100" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G100" s="34" t="s">
+      <c r="G100" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="H100" s="37" t="s">
+      <c r="H100" s="18" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="33"/>
-      <c r="C101" s="34" t="s">
+      <c r="B101" s="30"/>
+      <c r="C101" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D101" s="35" t="s">
+      <c r="D101" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E101" s="34" t="s">
+      <c r="E101" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="F101" s="35" t="s">
+      <c r="F101" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G101" s="34" t="s">
+      <c r="G101" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="H101" s="34"/>
+      <c r="H101" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="B57:B60"/>
     <mergeCell ref="B61:B82"/>
     <mergeCell ref="B83:B101"/>
@@ -5002,7 +4996,6 @@
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B27"/>
     <mergeCell ref="B28:B31"/>
-    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
